--- a/bản phân công 1.xlsx
+++ b/bản phân công 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usyly\OneDrive\Desktop\bc32e_capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usyly\OneDrive\Desktop\bc32e_long_huu_capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD91C72-58CD-4C9B-93A7-7EAE2E2B4DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E29A67D-D7AB-4F0C-A45F-03A7CCF06074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Hữu</t>
+  </si>
+  <si>
+    <t>Huu</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -290,9 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
       <c r="B2" s="8">
         <v>44709</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>44718</v>
       </c>
       <c r="D2" s="9">
@@ -767,9 +767,15 @@
       <c r="F8" s="11">
         <v>44719</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="8">
+        <v>44902</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -787,10 +793,16 @@
       <c r="F9" s="11">
         <v>44719</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="G9" s="8">
+        <v>44902</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -801,16 +813,22 @@
       <c r="D10" s="9">
         <v>0.9</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="11">
         <v>44719</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="G10" s="8">
+        <v>44902</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
@@ -821,44 +839,48 @@
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="11">
         <v>44719</v>
       </c>
       <c r="G11" s="8">
-        <v>44719</v>
+        <v>44902</v>
       </c>
       <c r="H11" s="17">
         <v>1</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="I11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="11">
         <v>44719</v>
       </c>
       <c r="G12" s="8">
-        <v>44719</v>
+        <v>44902</v>
       </c>
       <c r="H12" s="17">
         <v>1</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
